--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyDpUnpaidExpense.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyDpUnpaidExpense.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B67BE4-53DD-4B03-BF3E-2ABDE4E34D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8593EF88-88FA-47D1-A979-27C64745366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,10 +116,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -255,6 +251,9 @@
   <si>
     <t>以本筆放款餘額佔戶號加總放款餘額的比例分擔法拍費</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -575,9 +574,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,9 +614,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,26 +649,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,26 +684,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -898,7 +863,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.21875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -919,10 +884,10 @@
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="18"/>
@@ -949,7 +914,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -1036,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="13">
         <v>6</v>
@@ -1079,7 +1044,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
@@ -1096,10 +1061,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>22</v>
@@ -1116,20 +1081,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="E13" s="22">
         <v>1</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="19"/>
     </row>
@@ -1138,10 +1103,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>22</v>
@@ -1160,10 +1125,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>22</v>
@@ -1182,10 +1147,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>22</v>
@@ -1197,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="19"/>
     </row>
@@ -1206,10 +1171,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>22</v>
@@ -1221,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="19"/>
     </row>
@@ -1236,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="14"/>
@@ -1248,13 +1213,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="E19" s="15">
         <v>6</v>
@@ -1268,13 +1233,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="14"/>
@@ -1286,13 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="15">
         <v>6</v>
@@ -1347,7 +1312,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1374,13 +1339,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
